--- a/Code/Results/Cases/Case_0_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_161/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1572258721213302</v>
+        <v>0.04910134944039157</v>
       </c>
       <c r="D2">
-        <v>0.2348473551051171</v>
+        <v>0.162116166634263</v>
       </c>
       <c r="E2">
-        <v>0.6880001587468172</v>
+        <v>0.2537512982573276</v>
       </c>
       <c r="F2">
-        <v>0.3695625393969024</v>
+        <v>0.9853616620280334</v>
       </c>
       <c r="G2">
-        <v>0.000724449120294568</v>
+        <v>0.002430949633585369</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.368805901509575</v>
+        <v>0.4283563618163839</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>33.96625880396005</v>
+        <v>10.9357286970332</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.946821818494925</v>
+        <v>2.786437679966582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1342160081812267</v>
+        <v>0.04357122867759244</v>
       </c>
       <c r="D3">
-        <v>0.2042072433391837</v>
+        <v>0.1560232641946584</v>
       </c>
       <c r="E3">
-        <v>0.5775731922260334</v>
+        <v>0.2325967084506857</v>
       </c>
       <c r="F3">
-        <v>0.2773633203757058</v>
+        <v>1.029516344211281</v>
       </c>
       <c r="G3">
-        <v>0.000737691308247627</v>
+        <v>0.002437072292602609</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.140695875076261</v>
+        <v>0.3848457021135516</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.89496567597092</v>
+        <v>9.612703468246707</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.562828655153766</v>
+        <v>2.862946529673025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1205547245247658</v>
+        <v>0.04019728211902418</v>
       </c>
       <c r="D4">
-        <v>0.1865904403543084</v>
+        <v>0.1523631980409021</v>
       </c>
       <c r="E4">
-        <v>0.5150868114435454</v>
+        <v>0.2197763238064852</v>
       </c>
       <c r="F4">
-        <v>0.2375823269815598</v>
+        <v>1.058762334134251</v>
       </c>
       <c r="G4">
-        <v>0.000745679846206771</v>
+        <v>0.002440993109030101</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.012029801027552</v>
+        <v>0.3584113181624957</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.92678748039759</v>
+        <v>8.797400819332893</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.372065158426693</v>
+        <v>2.915534710963414</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1150814526092176</v>
+        <v>0.03882757843490481</v>
       </c>
       <c r="D5">
-        <v>0.1796396341290745</v>
+        <v>0.1508918880495997</v>
       </c>
       <c r="E5">
-        <v>0.4906364820089451</v>
+        <v>0.2145927303900308</v>
       </c>
       <c r="F5">
-        <v>0.2247757867170819</v>
+        <v>1.071207773722179</v>
       </c>
       <c r="G5">
-        <v>0.0007489177162346301</v>
+        <v>0.002442631707241562</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.9617691092150267</v>
+        <v>0.3477061187714412</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.74460179038476</v>
+        <v>8.464380202270775</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.303458959148941</v>
+        <v>2.938350607595339</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1141776901968257</v>
+        <v>0.03860044845109201</v>
       </c>
       <c r="D6">
-        <v>0.178497512181039</v>
+        <v>0.1506487936340619</v>
       </c>
       <c r="E6">
-        <v>0.486629978840611</v>
+        <v>0.2137344202183655</v>
       </c>
       <c r="F6">
-        <v>0.2228346826315857</v>
+        <v>1.073305915187952</v>
       </c>
       <c r="G6">
-        <v>0.000749454748513236</v>
+        <v>0.002442906268184312</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.9535378876725531</v>
+        <v>0.3459324734913025</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.54973025292162</v>
+        <v>8.409034484731251</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.292564783718916</v>
+        <v>2.942222134642918</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1204805577353341</v>
+        <v>0.04017878901555605</v>
       </c>
       <c r="D7">
-        <v>0.1864958559076939</v>
+        <v>0.1523432738649859</v>
       </c>
       <c r="E7">
-        <v>0.5147533231937658</v>
+        <v>0.2197062527792752</v>
       </c>
       <c r="F7">
-        <v>0.2373967663862899</v>
+        <v>1.058928054289758</v>
       </c>
       <c r="G7">
-        <v>0.0007457235635717763</v>
+        <v>0.002441015041877974</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.011343948407671</v>
+        <v>0.3582666774217387</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.91074367813337</v>
+        <v>8.7929127789983</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.371105427058012</v>
+        <v>2.915836836265953</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1491791779871647</v>
+        <v>0.04718995276459736</v>
       </c>
       <c r="D8">
-        <v>0.2239827871188851</v>
+        <v>0.159998405910315</v>
       </c>
       <c r="E8">
-        <v>0.6485933197260252</v>
+        <v>0.2464211977394939</v>
       </c>
       <c r="F8">
-        <v>0.3337035306705971</v>
+        <v>1.000137451127415</v>
       </c>
       <c r="G8">
-        <v>0.0007290572487363966</v>
+        <v>0.002433027352024647</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.287299867001479</v>
+        <v>0.4132931576789929</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>32.18097612302853</v>
+        <v>10.48014164963467</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.803563484439735</v>
+        <v>2.811638000453399</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2106421106276599</v>
+        <v>0.0611207289749558</v>
       </c>
       <c r="D9">
-        <v>0.3121972616508089</v>
+        <v>0.1756633327369883</v>
       </c>
       <c r="E9">
-        <v>0.97604850804953</v>
+        <v>0.3002280680070442</v>
       </c>
       <c r="F9">
-        <v>0.7121438138738441</v>
+        <v>0.9022112971321121</v>
       </c>
       <c r="G9">
-        <v>0.0006940070196815148</v>
+        <v>0.002418633901242167</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.967605173223433</v>
+        <v>0.5236194466843642</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>46.27067914548519</v>
+        <v>13.76723892034278</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.155229704624929</v>
+        <v>2.652973941649918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.262388487217379</v>
+        <v>0.07148288808997449</v>
       </c>
       <c r="D10">
-        <v>0.4004921351048267</v>
+        <v>0.1875893170603717</v>
       </c>
       <c r="E10">
-        <v>1.318442954252475</v>
+        <v>0.3407515770546041</v>
       </c>
       <c r="F10">
-        <v>1.25076667288036</v>
+        <v>0.8414379404937051</v>
       </c>
       <c r="G10">
-        <v>0.0006635948190071291</v>
+        <v>0.002408817628314487</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.68454040205097</v>
+        <v>0.6064397348642956</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>59.40561184717211</v>
+        <v>16.17239597373094</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.828585832443395</v>
+        <v>2.565843596840836</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2891786832000918</v>
+        <v>0.07622826814424855</v>
       </c>
       <c r="D11">
-        <v>0.4553682987461372</v>
+        <v>0.1931102807944853</v>
       </c>
       <c r="E11">
-        <v>1.536464789938293</v>
+        <v>0.359433002896921</v>
       </c>
       <c r="F11">
-        <v>1.640634647778043</v>
+        <v>0.8163471564696962</v>
       </c>
       <c r="G11">
-        <v>0.0006467777659432089</v>
+        <v>0.002404513089326896</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.14279693649766</v>
+        <v>0.6445695251636323</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>67.04094284159078</v>
+        <v>17.2652529995803</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.960749274244336</v>
+        <v>2.532952549403632</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3002193269815905</v>
+        <v>0.07803005823552667</v>
       </c>
       <c r="D12">
-        <v>0.4809176833962283</v>
+        <v>0.1952151399285071</v>
       </c>
       <c r="E12">
-        <v>1.638876556409755</v>
+        <v>0.3665454014896312</v>
       </c>
       <c r="F12">
-        <v>1.832068952808257</v>
+        <v>0.8072245450992881</v>
       </c>
       <c r="G12">
-        <v>0.0006394644450943622</v>
+        <v>0.002402905922416597</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.358304299222226</v>
+        <v>0.6590797070934116</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>70.45135205719811</v>
+        <v>17.67897970287771</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.500200186429254</v>
+        <v>2.521497563261818</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2977869128690003</v>
+        <v>0.07764179172473007</v>
       </c>
       <c r="D13">
-        <v>0.4751042801712515</v>
+        <v>0.1947611825851823</v>
       </c>
       <c r="E13">
-        <v>1.615535123008129</v>
+        <v>0.3650118787719521</v>
       </c>
       <c r="F13">
-        <v>1.788061470323299</v>
+        <v>0.8091722362028833</v>
       </c>
       <c r="G13">
-        <v>0.0006411002852886925</v>
+        <v>0.00240325104204001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.309177317306279</v>
+        <v>0.655951412055316</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>69.68352535718299</v>
+        <v>17.58988021726321</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.377032221346212</v>
+        <v>2.523919628716612</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2900641964439217</v>
+        <v>0.07637640432666615</v>
       </c>
       <c r="D14">
-        <v>0.4573425120419472</v>
+        <v>0.193283161873552</v>
       </c>
       <c r="E14">
-        <v>1.544361252085764</v>
+        <v>0.3600173639745066</v>
       </c>
       <c r="F14">
-        <v>1.655234777655323</v>
+        <v>0.8155889779566223</v>
       </c>
       <c r="G14">
-        <v>0.0006462011602492881</v>
+        <v>0.002404380410090616</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.159409502918521</v>
+        <v>0.6457618231236495</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>67.30777153452073</v>
+        <v>17.29929243447788</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.002236453338924</v>
+        <v>2.531989920760907</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2854735705231946</v>
+        <v>0.07560195378496815</v>
       </c>
       <c r="D15">
-        <v>0.4472357649134864</v>
+        <v>0.1923796926779175</v>
       </c>
       <c r="E15">
-        <v>1.503969874360791</v>
+        <v>0.3569631284868962</v>
       </c>
       <c r="F15">
-        <v>1.580863780595038</v>
+        <v>0.8195690781147107</v>
       </c>
       <c r="G15">
-        <v>0.0006491735388881406</v>
+        <v>0.002405075150578692</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.074443018908909</v>
+        <v>0.639529868025221</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>65.93596567003527</v>
+        <v>17.12128620227514</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.790278981081656</v>
+        <v>2.537064365069227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2607286155417086</v>
+        <v>0.07117342522747094</v>
       </c>
       <c r="D16">
-        <v>0.3973515841608162</v>
+        <v>0.1872304709428931</v>
       </c>
       <c r="E16">
-        <v>1.306066308518183</v>
+        <v>0.3395358932150572</v>
       </c>
       <c r="F16">
-        <v>1.229526115673607</v>
+        <v>0.8431300587972643</v>
       </c>
       <c r="G16">
-        <v>0.0006646041877028647</v>
+        <v>0.002409102155313234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.658556888139174</v>
+        <v>0.6039575036884628</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>58.95606334645919</v>
+        <v>16.10095538832451</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.765380932595349</v>
+        <v>2.56813139670956</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2465557243164085</v>
+        <v>0.06846494855633978</v>
       </c>
       <c r="D17">
-        <v>0.3715095547980098</v>
+        <v>0.1840964024605682</v>
       </c>
       <c r="E17">
-        <v>1.204722964947223</v>
+        <v>0.3289099337243471</v>
       </c>
       <c r="F17">
-        <v>1.059975247910536</v>
+        <v>0.8582463659384558</v>
       </c>
       <c r="G17">
-        <v>0.0006731078062806516</v>
+        <v>0.002411613619424163</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.445960174699593</v>
+        <v>0.5822554779055906</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>55.20647967593254</v>
+        <v>15.47473804671301</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.253992108015325</v>
+        <v>2.588938834743772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2386746180998784</v>
+        <v>0.06691005990548149</v>
       </c>
       <c r="D18">
-        <v>0.3578113026068621</v>
+        <v>0.182302755934046</v>
       </c>
       <c r="E18">
-        <v>1.15139350240473</v>
+        <v>0.3228212506648589</v>
       </c>
       <c r="F18">
-        <v>0.9741915739012939</v>
+        <v>0.8671806939140936</v>
       </c>
       <c r="G18">
-        <v>0.0006777607379093299</v>
+        <v>0.002413073311698665</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.334218152668484</v>
+        <v>0.5698154410074778</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>53.1829429182302</v>
+        <v>15.1144313218611</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.990035349854395</v>
+        <v>2.601539741913911</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2360462393371563</v>
+        <v>0.06638410068660505</v>
       </c>
       <c r="D19">
-        <v>0.3533377714412609</v>
+        <v>0.1816969895673424</v>
       </c>
       <c r="E19">
-        <v>1.134040493673325</v>
+        <v>0.3207636159141742</v>
       </c>
       <c r="F19">
-        <v>0.9468393838747815</v>
+        <v>0.8702465557505548</v>
       </c>
       <c r="G19">
-        <v>0.0006793024613846784</v>
+        <v>0.002413570151264189</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2.29788006902325</v>
+        <v>0.565610566027658</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>52.51678985859371</v>
+        <v>14.99241458575534</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.905032865955206</v>
+        <v>2.605914005488643</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2480347596212482</v>
+        <v>0.06875296267138253</v>
       </c>
       <c r="D20">
-        <v>0.3741305365007577</v>
+        <v>0.1844290964286586</v>
       </c>
       <c r="E20">
-        <v>1.214958964214844</v>
+        <v>0.3300386774008359</v>
       </c>
       <c r="F20">
-        <v>1.076725375251222</v>
+        <v>0.8566123072353733</v>
       </c>
       <c r="G20">
-        <v>0.0006722291051587203</v>
+        <v>0.002411344702323322</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.467418864121441</v>
+        <v>0.5845612664170972</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>55.59083985971381</v>
+        <v>15.54141222556547</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.305095066299941</v>
+        <v>2.58665811585638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2923014900053289</v>
+        <v>0.07674794627662607</v>
       </c>
       <c r="D21">
-        <v>0.4623854626767638</v>
+        <v>0.193716903701926</v>
       </c>
       <c r="E21">
-        <v>1.564545809059013</v>
+        <v>0.3614833168744838</v>
       </c>
       <c r="F21">
-        <v>1.692683398635552</v>
+        <v>0.813693855594039</v>
       </c>
       <c r="G21">
-        <v>0.0006447370661577141</v>
+        <v>0.002404048068892886</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.201877256486029</v>
+        <v>0.648752769320339</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>67.98685484981871</v>
+        <v>17.3846476549358</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.108380835995717</v>
+        <v>2.52959209223485</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3276741839923005</v>
+        <v>0.0820013469242582</v>
       </c>
       <c r="D22">
-        <v>0.5565898375111828</v>
+        <v>0.1998699610826975</v>
       </c>
       <c r="E22">
-        <v>1.944013318455887</v>
+        <v>0.3822579181084649</v>
       </c>
       <c r="F22">
-        <v>2.42204499466078</v>
+        <v>0.7878571050326997</v>
       </c>
       <c r="G22">
-        <v>0.0006196386709781545</v>
+        <v>0.002399412458807486</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.000693044028935</v>
+        <v>0.6911240117993032</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>80.00521658399686</v>
+        <v>18.58867652350335</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.108993727464224</v>
+        <v>2.498140302694679</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3077262995899446</v>
+        <v>0.07919483229939317</v>
       </c>
       <c r="D23">
-        <v>0.4996158750140438</v>
+        <v>0.1965782191145706</v>
       </c>
       <c r="E23">
-        <v>1.714081416457333</v>
+        <v>0.371148736645182</v>
       </c>
       <c r="F23">
-        <v>1.975173383998907</v>
+        <v>0.8014403791167766</v>
       </c>
       <c r="G23">
-        <v>0.000634314084139413</v>
+        <v>0.00240187447970057</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.516614215666323</v>
+        <v>0.6684693392201382</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>72.88824452875036</v>
+        <v>17.94609775963994</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.897462324232208</v>
+        <v>2.514381789497321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2473652775193642</v>
+        <v>0.06862274450045902</v>
       </c>
       <c r="D24">
-        <v>0.3729421065593499</v>
+        <v>0.1842786600651891</v>
       </c>
       <c r="E24">
-        <v>1.210316417242709</v>
+        <v>0.3295283092800503</v>
       </c>
       <c r="F24">
-        <v>1.069117332123817</v>
+        <v>0.8573503067617594</v>
       </c>
       <c r="G24">
-        <v>0.0006726270758408384</v>
+        <v>0.002411466230442884</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.457685831707181</v>
+        <v>0.5835187054151731</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>55.4166724391215</v>
+        <v>15.51126972520802</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.281900620041426</v>
+        <v>2.587687242564755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1932027681426689</v>
+        <v>0.05733095622518647</v>
       </c>
       <c r="D25">
-        <v>0.2857899213684334</v>
+        <v>0.171353842134593</v>
       </c>
       <c r="E25">
-        <v>0.8762976451400704</v>
+        <v>0.285507522792031</v>
       </c>
       <c r="F25">
-        <v>0.579339494094306</v>
+        <v>0.9267841457537145</v>
       </c>
       <c r="G25">
-        <v>0.0007039668195494271</v>
+        <v>0.002422393317935045</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.759692214102813</v>
+        <v>0.4934857321182164</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>42.15055200331653</v>
+        <v>12.87998317466628</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.709327941061673</v>
+        <v>2.690844331968322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_161/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04910134944039157</v>
+        <v>0.1572258721213444</v>
       </c>
       <c r="D2">
-        <v>0.162116166634263</v>
+        <v>0.234847355105174</v>
       </c>
       <c r="E2">
-        <v>0.2537512982573276</v>
+        <v>0.6880001587468101</v>
       </c>
       <c r="F2">
-        <v>0.9853616620280334</v>
+        <v>0.3695625393969024</v>
       </c>
       <c r="G2">
-        <v>0.002430949633585369</v>
+        <v>0.0007244491202705968</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4283563618163839</v>
+        <v>1.368805901509404</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.9357286970332</v>
+        <v>33.9662588039601</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.786437679966582</v>
+        <v>1.94682181849484</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04357122867759244</v>
+        <v>0.1342160081813404</v>
       </c>
       <c r="D3">
-        <v>0.1560232641946584</v>
+        <v>0.2042072433392406</v>
       </c>
       <c r="E3">
-        <v>0.2325967084506857</v>
+        <v>0.5775731922260761</v>
       </c>
       <c r="F3">
-        <v>1.029516344211281</v>
+        <v>0.2773633203756845</v>
       </c>
       <c r="G3">
-        <v>0.002437072292602609</v>
+        <v>0.0007376913083040239</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3848457021135516</v>
+        <v>1.140695875076176</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.612703468246707</v>
+        <v>28.89496567597092</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.862946529673025</v>
+        <v>1.562828655153766</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04019728211902418</v>
+        <v>0.120554724524581</v>
       </c>
       <c r="D4">
-        <v>0.1523631980409021</v>
+        <v>0.1865904403542658</v>
       </c>
       <c r="E4">
-        <v>0.2197763238064852</v>
+        <v>0.5150868114435241</v>
       </c>
       <c r="F4">
-        <v>1.058762334134251</v>
+        <v>0.2375823269815598</v>
       </c>
       <c r="G4">
-        <v>0.002440993109030101</v>
+        <v>0.0007456798461840243</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3584113181624957</v>
+        <v>1.01202980102758</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.797400819332893</v>
+        <v>25.92678748039759</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.915534710963414</v>
+        <v>1.372065158426693</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03882757843490481</v>
+        <v>0.1150814526089903</v>
       </c>
       <c r="D5">
-        <v>0.1508918880495997</v>
+        <v>0.1796396341289181</v>
       </c>
       <c r="E5">
-        <v>0.2145927303900308</v>
+        <v>0.4906364820089379</v>
       </c>
       <c r="F5">
-        <v>1.071207773722179</v>
+        <v>0.2247757867170606</v>
       </c>
       <c r="G5">
-        <v>0.002442631707241562</v>
+        <v>0.0007489177162849422</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3477061187714412</v>
+        <v>0.9617691092149414</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.464380202270775</v>
+        <v>24.74460179038482</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.938350607595339</v>
+        <v>1.303458959148912</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03860044845109201</v>
+        <v>0.1141776901967262</v>
       </c>
       <c r="D6">
-        <v>0.1506487936340619</v>
+        <v>0.1784975121810959</v>
       </c>
       <c r="E6">
-        <v>0.2137344202183655</v>
+        <v>0.486629978840611</v>
       </c>
       <c r="F6">
-        <v>1.073305915187952</v>
+        <v>0.2228346826315786</v>
       </c>
       <c r="G6">
-        <v>0.002442906268184312</v>
+        <v>0.0007494547485570694</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3459324734913025</v>
+        <v>0.9535378876724963</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.409034484731251</v>
+        <v>24.54973025292179</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.942222134642918</v>
+        <v>1.292564783718944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04017878901555605</v>
+        <v>0.1204805577354335</v>
       </c>
       <c r="D7">
-        <v>0.1523432738649859</v>
+        <v>0.1864958559075802</v>
       </c>
       <c r="E7">
-        <v>0.2197062527792752</v>
+        <v>0.5147533231937516</v>
       </c>
       <c r="F7">
-        <v>1.058928054289758</v>
+        <v>0.2373967663862686</v>
       </c>
       <c r="G7">
-        <v>0.002441015041877974</v>
+        <v>0.0007457235635429105</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3582666774217387</v>
+        <v>1.011343948407728</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.7929127789983</v>
+        <v>25.9107436781332</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.915836836265953</v>
+        <v>1.371105427057984</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04718995276459736</v>
+        <v>0.1491791779871647</v>
       </c>
       <c r="D8">
-        <v>0.159998405910315</v>
+        <v>0.2239827871189135</v>
       </c>
       <c r="E8">
-        <v>0.2464211977394939</v>
+        <v>0.6485933197260181</v>
       </c>
       <c r="F8">
-        <v>1.000137451127415</v>
+        <v>0.3337035306705971</v>
       </c>
       <c r="G8">
-        <v>0.002433027352024647</v>
+        <v>0.0007290572487652735</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4132931576789929</v>
+        <v>1.287299867001479</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.48014164963467</v>
+        <v>32.18097612302853</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.811638000453399</v>
+        <v>1.803563484439621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0611207289749558</v>
+        <v>0.2106421106275604</v>
       </c>
       <c r="D9">
-        <v>0.1756633327369883</v>
+        <v>0.3121972616509083</v>
       </c>
       <c r="E9">
-        <v>0.3002280680070442</v>
+        <v>0.9760485080495016</v>
       </c>
       <c r="F9">
-        <v>0.9022112971321121</v>
+        <v>0.7121438138738583</v>
       </c>
       <c r="G9">
-        <v>0.002418633901242167</v>
+        <v>0.0006940070197091595</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5236194466843642</v>
+        <v>1.967605173223319</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.76723892034278</v>
+        <v>46.27067914548536</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.652973941649918</v>
+        <v>3.155229704624844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07148288808997449</v>
+        <v>0.262388487217379</v>
       </c>
       <c r="D10">
-        <v>0.1875893170603717</v>
+        <v>0.4004921351047273</v>
       </c>
       <c r="E10">
-        <v>0.3407515770546041</v>
+        <v>1.318442954252504</v>
       </c>
       <c r="F10">
-        <v>0.8414379404937051</v>
+        <v>1.250766672880367</v>
       </c>
       <c r="G10">
-        <v>0.002408817628314487</v>
+        <v>0.0006635948190341637</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6064397348642956</v>
+        <v>2.68454040205097</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.17239597373094</v>
+        <v>59.40561184717251</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.565843596840836</v>
+        <v>4.828585832443423</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07622826814424855</v>
+        <v>0.2891786832001486</v>
       </c>
       <c r="D11">
-        <v>0.1931102807944853</v>
+        <v>0.455368298746194</v>
       </c>
       <c r="E11">
-        <v>0.359433002896921</v>
+        <v>1.536464789938321</v>
       </c>
       <c r="F11">
-        <v>0.8163471564696962</v>
+        <v>1.640634647778043</v>
       </c>
       <c r="G11">
-        <v>0.002404513089326896</v>
+        <v>0.0006467777658861989</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6445695251636323</v>
+        <v>3.142796936497774</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.2652529995803</v>
+        <v>67.04094284159072</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.532952549403632</v>
+        <v>5.960749274244279</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07803005823552667</v>
+        <v>0.3002193269814626</v>
       </c>
       <c r="D12">
-        <v>0.1952151399285071</v>
+        <v>0.4809176833961715</v>
       </c>
       <c r="E12">
-        <v>0.3665454014896312</v>
+        <v>1.638876556409741</v>
       </c>
       <c r="F12">
-        <v>0.8072245450992881</v>
+        <v>1.8320689528082</v>
       </c>
       <c r="G12">
-        <v>0.002402905922416597</v>
+        <v>0.0006394644450305489</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6590797070934116</v>
+        <v>3.358304299222283</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.67897970287771</v>
+        <v>70.45135205719731</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.521497563261818</v>
+        <v>6.50020018642914</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07764179172473007</v>
+        <v>0.2977869128689576</v>
       </c>
       <c r="D13">
-        <v>0.1947611825851823</v>
+        <v>0.4751042801712373</v>
       </c>
       <c r="E13">
-        <v>0.3650118787719521</v>
+        <v>1.615535123008115</v>
       </c>
       <c r="F13">
-        <v>0.8091722362028833</v>
+        <v>1.788061470323271</v>
       </c>
       <c r="G13">
-        <v>0.00240325104204001</v>
+        <v>0.0006411002852244423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.655951412055316</v>
+        <v>3.309177317306336</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.58988021726321</v>
+        <v>69.68352535718293</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.523919628716612</v>
+        <v>6.377032221346099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07637640432666615</v>
+        <v>0.2900641964436375</v>
       </c>
       <c r="D14">
-        <v>0.193283161873552</v>
+        <v>0.4573425120419614</v>
       </c>
       <c r="E14">
-        <v>0.3600173639745066</v>
+        <v>1.544361252085764</v>
       </c>
       <c r="F14">
-        <v>0.8155889779566223</v>
+        <v>1.655234777655295</v>
       </c>
       <c r="G14">
-        <v>0.002404380410090616</v>
+        <v>0.0006462011602495488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6457618231236495</v>
+        <v>3.159409502918379</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.29929243447788</v>
+        <v>67.30777153452061</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.531989920760907</v>
+        <v>6.002236453338924</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07560195378496815</v>
+        <v>0.2854735705230524</v>
       </c>
       <c r="D15">
-        <v>0.1923796926779175</v>
+        <v>0.4472357649133443</v>
       </c>
       <c r="E15">
-        <v>0.3569631284868962</v>
+        <v>1.503969874360791</v>
       </c>
       <c r="F15">
-        <v>0.8195690781147107</v>
+        <v>1.580863780594967</v>
       </c>
       <c r="G15">
-        <v>0.002405075150578692</v>
+        <v>0.0006491735389200615</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.639529868025221</v>
+        <v>3.074443018908795</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.12128620227514</v>
+        <v>65.93596567003522</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.537064365069227</v>
+        <v>5.790278981081542</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07117342522747094</v>
+        <v>0.2607286155418365</v>
       </c>
       <c r="D16">
-        <v>0.1872304709428931</v>
+        <v>0.3973515841607735</v>
       </c>
       <c r="E16">
-        <v>0.3395358932150572</v>
+        <v>1.306066308518211</v>
       </c>
       <c r="F16">
-        <v>0.8431300587972643</v>
+        <v>1.229526115673607</v>
       </c>
       <c r="G16">
-        <v>0.002409102155313234</v>
+        <v>0.0006646041877595836</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6039575036884628</v>
+        <v>2.658556888139145</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.10095538832451</v>
+        <v>58.95606334645925</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.56813139670956</v>
+        <v>4.765380932595264</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06846494855633978</v>
+        <v>0.2465557243163943</v>
       </c>
       <c r="D17">
-        <v>0.1840964024605682</v>
+        <v>0.371509554797953</v>
       </c>
       <c r="E17">
-        <v>0.3289099337243471</v>
+        <v>1.204722964947209</v>
       </c>
       <c r="F17">
-        <v>0.8582463659384558</v>
+        <v>1.059975247910536</v>
       </c>
       <c r="G17">
-        <v>0.002411613619424163</v>
+        <v>0.0006731078063103946</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5822554779055906</v>
+        <v>2.445960174699593</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.47473804671301</v>
+        <v>55.20647967593254</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.588938834743772</v>
+        <v>4.253992108015268</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06691005990548149</v>
+        <v>0.2386746180999921</v>
       </c>
       <c r="D18">
-        <v>0.182302755934046</v>
+        <v>0.3578113026071463</v>
       </c>
       <c r="E18">
-        <v>0.3228212506648589</v>
+        <v>1.151393502404716</v>
       </c>
       <c r="F18">
-        <v>0.8671806939140936</v>
+        <v>0.974191573901301</v>
       </c>
       <c r="G18">
-        <v>0.002413073311698665</v>
+        <v>0.0006777607378838663</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5698154410074778</v>
+        <v>2.334218152668427</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.1144313218611</v>
+        <v>53.18294291823037</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.601539741913911</v>
+        <v>3.990035349854395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06638410068660505</v>
+        <v>0.2360462393372842</v>
       </c>
       <c r="D19">
-        <v>0.1816969895673424</v>
+        <v>0.3533377714412893</v>
       </c>
       <c r="E19">
-        <v>0.3207636159141742</v>
+        <v>1.134040493673368</v>
       </c>
       <c r="F19">
-        <v>0.8702465557505548</v>
+        <v>0.9468393838747389</v>
       </c>
       <c r="G19">
-        <v>0.002413570151264189</v>
+        <v>0.0006793024613856506</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.565610566027658</v>
+        <v>2.297880069023137</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.99241458575534</v>
+        <v>52.51678985859394</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.605914005488643</v>
+        <v>3.905032865955064</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06875296267138253</v>
+        <v>0.2480347596213761</v>
       </c>
       <c r="D20">
-        <v>0.1844290964286586</v>
+        <v>0.3741305365006582</v>
       </c>
       <c r="E20">
-        <v>0.3300386774008359</v>
+        <v>1.214958964214844</v>
       </c>
       <c r="F20">
-        <v>0.8566123072353733</v>
+        <v>1.076725375251215</v>
       </c>
       <c r="G20">
-        <v>0.002411344702323322</v>
+        <v>0.0006722291051584062</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5845612664170972</v>
+        <v>2.467418864121271</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.54141222556547</v>
+        <v>55.59083985971341</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.58665811585638</v>
+        <v>4.305095066299828</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07674794627662607</v>
+        <v>0.2923014900054284</v>
       </c>
       <c r="D21">
-        <v>0.193716903701926</v>
+        <v>0.4623854626767212</v>
       </c>
       <c r="E21">
-        <v>0.3614833168744838</v>
+        <v>1.564545809059055</v>
       </c>
       <c r="F21">
-        <v>0.813693855594039</v>
+        <v>1.692683398635523</v>
       </c>
       <c r="G21">
-        <v>0.002404048068892886</v>
+        <v>0.0006447370661844531</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.648752769320339</v>
+        <v>3.201877256485915</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.3846476549358</v>
+        <v>67.98685484981877</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.52959209223485</v>
+        <v>6.108380835995604</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0820013469242582</v>
+        <v>0.32767418399267</v>
       </c>
       <c r="D22">
-        <v>0.1998699610826975</v>
+        <v>0.5565898375112539</v>
       </c>
       <c r="E22">
-        <v>0.3822579181084649</v>
+        <v>1.944013318455845</v>
       </c>
       <c r="F22">
-        <v>0.7878571050326997</v>
+        <v>2.422044994660723</v>
       </c>
       <c r="G22">
-        <v>0.002399412458807486</v>
+        <v>0.0006196386709598511</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6911240117993032</v>
+        <v>4.000693044028765</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.58867652350335</v>
+        <v>80.00521658399617</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.498140302694679</v>
+        <v>8.108993727464224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07919483229939317</v>
+        <v>0.3077262995899304</v>
       </c>
       <c r="D23">
-        <v>0.1965782191145706</v>
+        <v>0.4996158750141433</v>
       </c>
       <c r="E23">
-        <v>0.371148736645182</v>
+        <v>1.714081416457319</v>
       </c>
       <c r="F23">
-        <v>0.8014403791167766</v>
+        <v>1.975173383998865</v>
       </c>
       <c r="G23">
-        <v>0.00240187447970057</v>
+        <v>0.0006343140841397199</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6684693392201382</v>
+        <v>3.516614215666294</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.94609775963994</v>
+        <v>72.88824452874985</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.514381789497321</v>
+        <v>6.897462324232094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06862274450045902</v>
+        <v>0.2473652775192363</v>
       </c>
       <c r="D24">
-        <v>0.1842786600651891</v>
+        <v>0.3729421065594494</v>
       </c>
       <c r="E24">
-        <v>0.3295283092800503</v>
+        <v>1.210316417242737</v>
       </c>
       <c r="F24">
-        <v>0.8573503067617594</v>
+        <v>1.069117332123824</v>
       </c>
       <c r="G24">
-        <v>0.002411466230442884</v>
+        <v>0.0006726270758429441</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5835187054151731</v>
+        <v>2.457685831707096</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.51126972520802</v>
+        <v>55.41667243912173</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.587687242564755</v>
+        <v>4.281900620041398</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05733095622518647</v>
+        <v>0.1932027681425552</v>
       </c>
       <c r="D25">
-        <v>0.171353842134593</v>
+        <v>0.2857899213683339</v>
       </c>
       <c r="E25">
-        <v>0.285507522792031</v>
+        <v>0.8762976451400988</v>
       </c>
       <c r="F25">
-        <v>0.9267841457537145</v>
+        <v>0.5793394940943131</v>
       </c>
       <c r="G25">
-        <v>0.002422393317935045</v>
+        <v>0.0007039668195758587</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4934857321182164</v>
+        <v>1.759692214102756</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.87998317466628</v>
+        <v>42.15055200331665</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.690844331968322</v>
+        <v>2.709327941061815</v>
       </c>
     </row>
   </sheetData>
